--- a/Spatial/PDFs/figure1_zMIs_AD_RANOVA.xlsx
+++ b/Spatial/PDFs/figure1_zMIs_AD_RANOVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5513BAD1-4E40-40D9-8126-EBBE25AD0A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E750F7E1-513B-4E84-B733-D4C391F9EFB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{C97F5AA9-4391-4BFA-A3CC-50ABC895B90B}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{F31AE236-7534-4B6D-8A56-C63BD81C619F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,20 +430,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5DA8F9-C828-4C25-838D-BF984410A964}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3275C9C1-A79A-4021-A9A0-DDA9B6D631E3}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -501,7 +501,7 @@
         <v>9.2295211572122082E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -530,7 +530,7 @@
         <v>0.75592707626178335</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -559,7 +559,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -588,7 +588,7 @@
         <v>8.0916973801473287E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -617,7 +617,7 @@
         <v>0.46766091019618095</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -652,24 +652,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55ED1765-F9BA-4E50-B611-CDC87D00F14A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0986B787-73B3-43E9-B12D-47D2EBF66D6D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4421CCA9-682E-45EA-AC4C-BDBD2B48FF4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E11A1CD-02DE-440E-A8F7-9F110D4DA094}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Spatial/PDFs/figure1_zMIs_AD_RANOVA.xlsx
+++ b/Spatial/PDFs/figure1_zMIs_AD_RANOVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E750F7E1-513B-4E84-B733-D4C391F9EFB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F5B82AD-128F-4D15-8BCA-FEE242178D75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{F31AE236-7534-4B6D-8A56-C63BD81C619F}"/>
   </bookViews>

--- a/Spatial/PDFs/figure1_zMIs_AD_RANOVA.xlsx
+++ b/Spatial/PDFs/figure1_zMIs_AD_RANOVA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\brendan.mcallister\Documents\GitHub\Toolbox_2P\Spatial\PDFs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFE0E5A7-C44D-4057-A6E7-AEDEDFB1392E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6350C311-4A02-4FEF-AFED-ECE956CB82A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{91A4B3D2-33EA-450F-90A0-2ECA9576C6DE}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="19185" windowHeight="10200" xr2:uid="{91A4B3D2-33EA-450F-90A0-2ECA9576C6DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,28 +477,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1483.1086774241439</v>
+        <v>1600.2843924488611</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1483.1086774241439</v>
+        <v>1600.2843924488611</v>
       </c>
       <c r="E2">
-        <v>70.95808176019527</v>
+        <v>74.462124592122152</v>
       </c>
       <c r="F2">
-        <v>3.0063467479123652E-5</v>
+        <v>2.5222627834780502E-5</v>
       </c>
       <c r="G2">
-        <v>3.0063467479123652E-5</v>
+        <v>2.5222627834780502E-5</v>
       </c>
       <c r="H2">
-        <v>3.0063467479123652E-5</v>
+        <v>2.5222627834780502E-5</v>
       </c>
       <c r="I2">
-        <v>3.0063467479123652E-5</v>
+        <v>2.5222627834780502E-5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -506,28 +506,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.41580759817723</v>
+        <v>13.354303545218386</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>12.41580759817723</v>
+        <v>13.354303545218386</v>
       </c>
       <c r="E3">
-        <v>0.5940238258199888</v>
+        <v>0.62138318608693599</v>
       </c>
       <c r="F3">
-        <v>0.46301947010690692</v>
+        <v>0.45325634337152232</v>
       </c>
       <c r="G3">
-        <v>0.46301947010690692</v>
+        <v>0.45325634337152232</v>
       </c>
       <c r="H3">
-        <v>0.46301947010690692</v>
+        <v>0.45325634337152232</v>
       </c>
       <c r="I3">
-        <v>0.46301947010690692</v>
+        <v>0.45325634337152232</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -535,13 +535,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>167.20955703806641</v>
+        <v>171.93002764448823</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4">
-        <v>20.901194629758301</v>
+        <v>21.491253455561029</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>29.851123717843745</v>
+        <v>51.472308178814018</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>9.9503745726145816</v>
+        <v>17.157436059604674</v>
       </c>
       <c r="E5">
-        <v>5.9243909916570203</v>
+        <v>8.0040407583676796</v>
       </c>
       <c r="F5">
-        <v>3.5687964261829266E-3</v>
+        <v>7.1940542141092309E-4</v>
       </c>
       <c r="G5">
-        <v>1.5066246904153107E-2</v>
+        <v>6.8010373949686734E-3</v>
       </c>
       <c r="H5">
-        <v>8.2559251066940051E-3</v>
+        <v>3.4633380673719403E-3</v>
       </c>
       <c r="I5">
-        <v>4.0945485648806484E-2</v>
+        <v>2.2179506129376685E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -593,28 +593,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.0982151110984752</v>
+        <v>1.4965384757168347</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>0.36607170369949177</v>
+        <v>0.49884615857227826</v>
       </c>
       <c r="E6">
-        <v>0.21795681035633024</v>
+        <v>0.23271454846148265</v>
       </c>
       <c r="F6">
-        <v>0.88296480830133728</v>
+        <v>0.87267666524417431</v>
       </c>
       <c r="G6">
-        <v>0.7850612835485562</v>
+        <v>0.75761727053387196</v>
       </c>
       <c r="H6">
-        <v>0.83447706960504398</v>
+        <v>0.80202017723875629</v>
       </c>
       <c r="I6">
-        <v>0.65305187283732369</v>
+        <v>0.64244076466987454</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -622,13 +622,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>40.309457981259328</v>
+        <v>51.446322908841488</v>
       </c>
       <c r="C7">
         <v>24</v>
       </c>
       <c r="D7">
-        <v>1.6795607492191387</v>
+        <v>2.1435967878683955</v>
       </c>
       <c r="E7">
         <v>1</v>
